--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>625351.9873351564</v>
+        <v>616384.9536498967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621784</v>
+        <v>6750972.622617711</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951103</v>
+        <v>5193450.223461223</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7564704.201526656</v>
+        <v>7947332.173011096</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>404.743853909894</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>392.4208820523424</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>7.770085442703907</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>100.9213701355136</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>66.02274664973322</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.80671966285745</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>148.7760004850606</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>28.88782895361368</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1354,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1372,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>392.4208820523424</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.7165542762729</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1610,13 +1612,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3333018575504</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.2658873081456</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.7165542762729</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1783,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1849,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>351.2228221674562</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.75525064732285</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105131</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2570,7 +2572,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>137.6610422089757</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>233.1035603357851</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>49.12308702887178</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>140.548818152191</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2962,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>220.2647746254037</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3281,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>146.0963376228535</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>31.99018014062471</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,13 +3663,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.978362310752199</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>132.9957010382506</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>49.12308702887178</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.5592750322011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>361.0003448878583</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>85.44419313611913</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4043,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>165.421695385058</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1679.422105813543</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>1269.297515126813</v>
       </c>
       <c r="D2" t="n">
-        <v>1267.908511128883</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F2" t="n">
         <v>450.4933697367699</v>
@@ -4328,28 +4330,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4413,19 +4415,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959275</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.263917876656</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="C4" t="n">
-        <v>362.1705454383725</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6759007612826</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>315.5671578740656</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1282.831436215702</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1000.033288761826</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1000.033288761826</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>720.9636242707004</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X4" t="n">
-        <v>720.9636242707004</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.9636242707004</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.863997266186</v>
+        <v>927.2588741001834</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>927.2588741001834</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>522.794944193244</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>108.4547287101407</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>108.4547287101407</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4568,19 +4570,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
         <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4601,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X5" t="n">
-        <v>1303.850582784223</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.863997266186</v>
+        <v>1337.480053764673</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4753,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>762.7981736886139</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C8" t="n">
-        <v>352.673583001884</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D8" t="n">
-        <v>352.673583001884</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
         <v>41.76508562960205</v>
@@ -4805,22 +4807,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>692.8507596625949</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M8" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1937.975493111354</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="V8" t="n">
-        <v>1603.135651610684</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="W8" t="n">
-        <v>1573.956026405013</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="X8" t="n">
-        <v>1573.956026405013</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.019353353103</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4884,25 +4886,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O9" t="n">
-        <v>1221.566882129793</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4984,25 +4986,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
         <v>41.76508562960205</v>
@@ -5018,10 +5020,10 @@
         <v>1678.033101815613</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D11" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
         <v>871.5237817830823</v>
@@ -5045,16 +5047,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M11" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>1592.293889628578</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
         <v>2088.254281480102</v>
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
         <v>41.76508562960205</v>
@@ -5124,22 +5126,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L12" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M12" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N12" t="n">
-        <v>1541.851827451147</v>
-      </c>
       <c r="O12" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5154,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1299.499495805762</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1299.499495805762</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1299.499495805762</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1299.499495805762</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1299.499495805762</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654.2465468795142</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C14" t="n">
-        <v>244.1219561927843</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D14" t="n">
-        <v>41.76508562960205</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E14" t="n">
-        <v>41.76508562960205</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F14" t="n">
         <v>41.76508562960205</v>
@@ -5279,25 +5281,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L14" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1592.293889628578</v>
       </c>
-      <c r="N14" t="n">
-        <v>2088.254281480102</v>
-      </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1465.404399595914</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1064.467726544004</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L15" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N15" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.257211227551</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
         <v>41.76508562960205</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X16" t="n">
-        <v>1299.499495805762</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1299.499495805762</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>863.4445812219433</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E17" t="n">
-        <v>449.10436573884</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>704.7239474634679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>704.7239474634679</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O18" t="n">
-        <v>1738.409816796118</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.3502705630843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>557.3502705630843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3502705630843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>523.2540577880108</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>358.622931898602</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>191.3725408241454</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.499495805762</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1299.499495805762</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1299.499495805762</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>1020.429831314636</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X19" t="n">
-        <v>782.0859691743196</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.3502705630843</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5838,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>418.9079176142731</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>247.8145451759896</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5944,16 +5946,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6172,22 +6174,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X25" t="n">
-        <v>1595.012952997039</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y25" t="n">
         <v>1370.277254385804</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2237.518802661711</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1008.590066584938</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>587.5596545386256</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>178.8313704314578</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6224,10 +6226,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2647.7399823262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6309,13 +6311,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>665.4991476421408</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>741.1372444492208</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>741.1372444492208</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X28" t="n">
-        <v>505.6791026959025</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.9434040846672</v>
+        <v>826.4099627738212</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2512.458907120301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.334316433571</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.870386526632</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.530171043528</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>862.4997589972158</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>453.771474890048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>142.862977517766</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6546,16 +6548,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3788.915946046752</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="C31" t="n">
-        <v>3617.822573608469</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>3458.327928931379</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6646,25 +6648,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="W31" t="n">
-        <v>4439.695213192348</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="X31" t="n">
-        <v>4201.351351052032</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="Y31" t="n">
-        <v>3976.615652440797</v>
+        <v>4192.994968957174</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6734,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>275.6758118380055</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C34" t="n">
-        <v>275.6758118380055</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>275.6758118380055</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6758118380055</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X34" t="n">
-        <v>275.6758118380055</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y34" t="n">
-        <v>275.6758118380055</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3624.284820157343</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C37" t="n">
-        <v>3453.19144771906</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D37" t="n">
-        <v>3293.69680304197</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E37" t="n">
         <v>3132.785987910289</v>
@@ -7117,28 +7119,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>4422.636145507842</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>4422.636145507842</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>4422.636145507842</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W37" t="n">
-        <v>4275.06408730294</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X37" t="n">
-        <v>4036.720225162623</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y37" t="n">
-        <v>3811.984526551388</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,7 +7204,7 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4494.590496051882</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
         <v>4494.590496051882</v>
@@ -7254,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V40" t="n">
-        <v>640.0181946537314</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W40" t="n">
-        <v>640.0181946537314</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X40" t="n">
-        <v>505.6791026959025</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.9434040846672</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>862.4997589972158</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>453.771474890048</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>142.862977517766</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
         <v>93.2436976906228</v>
@@ -7600,19 +7602,19 @@
         <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>1111.429368843485</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>1111.429368843485</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>832.3597043523594</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X43" t="n">
-        <v>594.0158422120428</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.0367765229507</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>860.0557577311233</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>860.0557577311233</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>860.0557577311233</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>860.0557577311233</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0253456848109</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G44" t="n">
-        <v>439.0253456848109</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>295.9505570973564</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>295.9505570973564</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>812.7934917636817</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1329.636426430007</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.636426430007</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>1767.09327468481</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2088.254281480102</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221062</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>1644.459456427002</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1644.459456427002</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1260.699155562171</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>860.0557577311233</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>860.0557577311233</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>558.6080202959274</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959274</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960205</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960205</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960205</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960205</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960205</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>503.2668642681101</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W46" t="n">
-        <v>224.1971997769844</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X46" t="n">
-        <v>41.76508562960205</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960205</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>298.7361805822441</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
@@ -7991,16 +7993,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>527.2265162238737</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8073,10 +8075,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>171.9933802602892</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>553.6531472828635</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8295,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>262.4384495236158</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8453,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>231.0841246958424</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8532,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>68.26591628750424</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>205.3433246237784</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8695,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8702,10 +8704,10 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8772,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>524.3053858067742</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>555.2297277821215</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
         <v>617.5489684328704</v>
@@ -8936,10 +8938,10 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8948,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M15" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O15" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>263.5046911326696</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051008</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>265.3595799407149</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M26" t="n">
         <v>877.4504173780091</v>
@@ -9957,16 +9959,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10130,7 +10132,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10194,19 +10196,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>846.2776300172818</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>352.6623456499191</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>389.0116646475603</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11142,19 +11144,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>535.5249675786654</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,19 +11381,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>674.8624769205913</v>
       </c>
       <c r="N45" t="n">
-        <v>554.1634861730677</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.375113957950589</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>157.8078017210081</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>136.2318814975513</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>338.6182546163629</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22841,16 +22843,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.1205866585333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23024,10 +23026,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23036,7 +23038,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>71.20841872754914</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>351.0348689025694</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>17.77593127592968</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.106155053831</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>200.0859887503196</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>13.55422061770372</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
@@ -23546,7 +23548,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23558,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.106155053831</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -23716,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>49.19646844041387</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,16 +23898,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>125.5464563330409</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.874559219806002</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24607,19 +24609,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>25.32377242153899</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -24664,10 +24666,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>2.856863183128326</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>36.36515802722579</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.83362056170967</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>56.01419322081068</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1826302233609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>187.994239071985</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>156.3233446696115</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25564,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>102.9647224806629</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>36.36515802722579</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.9290665929218</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>169.0456936869659</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006493</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523356.2008143827</v>
+        <v>523356.2008143826</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523356.2008143827</v>
+        <v>523356.2008143828</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523356.2008143828</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.648151672</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796778.6481516723</v>
+        <v>796778.648151672</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796778.6481516723</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523356.2008143827</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="C2" t="n">
         <v>152207.2113488842</v>
@@ -26326,22 +26328,22 @@
         <v>152207.2113488842</v>
       </c>
       <c r="G2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.934028075</v>
       </c>
       <c r="H2" t="n">
+        <v>231718.9340280751</v>
+      </c>
+      <c r="I2" t="n">
         <v>231718.934028075</v>
-      </c>
-      <c r="I2" t="n">
-        <v>231718.9340280751</v>
       </c>
       <c r="J2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="K2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="M2" t="n">
         <v>231718.9340280751</v>
@@ -26353,7 +26355,7 @@
         <v>231718.9340280751</v>
       </c>
       <c r="P2" t="n">
-        <v>152207.2113488842</v>
+        <v>231718.9340280751</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>10090.76744434242</v>
       </c>
       <c r="G4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="H4" t="n">
         <v>15465.37373706398</v>
@@ -26457,7 +26459,7 @@
         <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>10090.76744434242</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98208.13106706992</v>
+        <v>-98208.13106706989</v>
       </c>
       <c r="C6" t="n">
-        <v>76747.37882604421</v>
+        <v>76747.37882604418</v>
       </c>
       <c r="D6" t="n">
-        <v>76747.37882604427</v>
+        <v>76747.37882604424</v>
       </c>
       <c r="E6" t="n">
         <v>110374.9788260442</v>
@@ -26534,22 +26536,22 @@
         <v>110374.9788260442</v>
       </c>
       <c r="G6" t="n">
-        <v>110374.9788260442</v>
+        <v>-30980.59228817318</v>
       </c>
       <c r="H6" t="n">
-        <v>-28229.06047351164</v>
+        <v>145388.3500461378</v>
       </c>
       <c r="I6" t="n">
+        <v>145388.3500461377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8793.549240242719</v>
+      </c>
+      <c r="K6" t="n">
         <v>145388.3500461378</v>
       </c>
-      <c r="J6" t="n">
-        <v>8793.549240242763</v>
-      </c>
-      <c r="K6" t="n">
-        <v>145388.3500461377</v>
-      </c>
       <c r="L6" t="n">
-        <v>145388.3500461377</v>
+        <v>145388.3500461378</v>
       </c>
       <c r="M6" t="n">
         <v>145388.3500461378</v>
@@ -26558,10 +26560,10 @@
         <v>145388.3500461378</v>
       </c>
       <c r="O6" t="n">
+        <v>-9466.393342570955</v>
+      </c>
+      <c r="P6" t="n">
         <v>145388.3500461378</v>
-      </c>
-      <c r="P6" t="n">
-        <v>110374.9788260443</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
@@ -34711,16 +34713,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>471.1119924130246</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34793,10 +34795,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>209.2450561298658</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>135.5987266329976</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>147.5918456237784</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35422,10 +35424,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
+        <v>522.0635703700256</v>
+      </c>
+      <c r="P11" t="n">
         <v>500.9700927793177</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>471.1119924130243</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>522.0635703700256</v>
@@ -35656,10 +35658,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793177</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L26" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M26" t="n">
         <v>784.1601929209636</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.9108666499191</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>441.8756042977812</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="N45" t="n">
-        <v>500.9700927793177</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5193450.223461223</v>
+        <v>5193450.223461221</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7947332.173011096</v>
+        <v>7947332.173011097</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>404.743853909894</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -667,13 +667,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>396.6425927105681</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762729</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>7.770085442703907</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -870,13 +870,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>372.2698922909595</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>66.02274664973322</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.5952110672383</v>
+        <v>29.06736062834934</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1144,7 +1144,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>148.7760004850606</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5647472501403</v>
       </c>
     </row>
     <row r="9">
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>388.2474135039329</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>19.89843046228963</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>351.2228221674562</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>51.73195755566563</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.06736062834964</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>164.5175082466431</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>153.0251390105131</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2484,19 +2484,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>122.2734976419322</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.31383608752344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>137.6610422089757</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>140.548818152191</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>12.68843489334748</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3192,22 +3192,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>153.0251390105127</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>12.68843489334793</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>79.6370788493017</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,13 +3669,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>2.978362310752199</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>155.8814660853022</v>
       </c>
       <c r="X43" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>361.0003448878583</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4140,22 +4140,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>27.71706800695802</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.421695385058</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1679.422105813543</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.297515126813</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D2" t="n">
-        <v>864.8335852198732</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>442.4141691756304</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M2" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959275</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.5671578740656</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>315.5671578740656</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>315.5671578740656</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>315.5671578740656</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>315.5671578740656</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4518,22 +4518,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="W4" t="n">
-        <v>503.2668642681101</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="X4" t="n">
-        <v>503.2668642681101</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="Y4" t="n">
-        <v>503.2668642681101</v>
+        <v>1299.499495805762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>927.2588741001834</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C5" t="n">
-        <v>927.2588741001834</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D5" t="n">
-        <v>522.794944193244</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E5" t="n">
-        <v>108.4547287101407</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>108.4547287101407</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1603.135651610683</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816583</v>
+        <v>818.7319529148044</v>
       </c>
       <c r="Y5" t="n">
-        <v>1337.480053764673</v>
+        <v>417.7952798628945</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129793</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X7" t="n">
-        <v>257.5178240813579</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.693821706375</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C8" t="n">
-        <v>860.5692310196448</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1053011127053</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960205</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L8" t="n">
-        <v>497.1688317915616</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1014.011766457887</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.975493111354</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1680.915001370864</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.915001370864</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.851827451147</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>257.5178240813579</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815613</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L11" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M11" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N11" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O11" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
         <v>2088.254281480102</v>
@@ -5083,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L12" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U13" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V13" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W13" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X13" t="n">
-        <v>257.5178240813579</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.908511128883</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>863.4445812219433</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>449.10436573884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5351,22 +5351,22 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811262</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N15" t="n">
         <v>1571.411346813777</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1014.752890035065</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>843.6595175967814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>684.1648729196913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>523.2540577880108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X16" t="n">
-        <v>1427.188295040345</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.452596429109</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
         <v>93.2436976906228</v>
@@ -5600,16 +5600,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>966.9017898022406</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>459.7367813560553</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>459.7367813560553</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>459.7367813560553</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>459.7367813560553</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>295.1056554666466</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5706,19 +5706,19 @@
         <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="W19" t="n">
-        <v>360.9485301626057</v>
+        <v>922.8163421076072</v>
       </c>
       <c r="X19" t="n">
-        <v>122.6046680222891</v>
+        <v>684.4724799672906</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>459.7367813560553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
         <v>93.2436976906228</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5840,10 +5840,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.9079176142731</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C22" t="n">
-        <v>247.8145451759896</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5949,13 +5949,13 @@
         <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X22" t="n">
-        <v>831.3433226195527</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="Y22" t="n">
-        <v>606.6076240083174</v>
+        <v>1348.756849250995</v>
       </c>
     </row>
     <row r="23">
@@ -6077,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1182.57754799176</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C25" t="n">
-        <v>1011.484175553476</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1436.250826191383</v>
+        <v>1499.134010834774</v>
       </c>
       <c r="T25" t="n">
-        <v>1436.250826191383</v>
+        <v>1259.585271811476</v>
       </c>
       <c r="U25" t="n">
-        <v>1436.250826191383</v>
+        <v>976.7871243576001</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.250826191383</v>
+        <v>702.9013792971219</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.250826191383</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="X25" t="n">
-        <v>1436.250826191383</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="Y25" t="n">
-        <v>1370.277254385804</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
         <v>1233.910891216385</v>
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.4099627738212</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>826.4099627738212</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>826.4099627738212</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>665.4991476421408</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
         <v>526.4475898552967</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>826.4099627738212</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>826.4099627738212</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>826.4099627738212</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6448,16 +6448,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4192.994968957174</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4475.79311641105</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4192.994968957174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V31" t="n">
-        <v>4192.994968957174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W31" t="n">
-        <v>4192.994968957174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="X31" t="n">
-        <v>4192.994968957174</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="Y31" t="n">
-        <v>4192.994968957174</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3458.450207833939</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C34" t="n">
-        <v>3287.356835395656</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I34" t="n">
         <v>3132.785987910289</v>
@@ -6882,28 +6882,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>4649.368283628768</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>4649.368283628768</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="V34" t="n">
-        <v>4388.299139470661</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="W34" t="n">
-        <v>4109.229474979536</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="X34" t="n">
-        <v>3870.885612839219</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="Y34" t="n">
-        <v>3646.149914227984</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6973,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.13812587521</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.13812587521</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>931.1375248150675</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>760.044152376784</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>600.549507699694</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>439.6386925680135</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>439.6386925680135</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>3594.287766548796</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>3315.218102057671</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>3132.785987910289</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>1118.837231209112</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.074801429505</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.7936626747511</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>521.7002902364676</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>362.2056455593776</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>359.19719878084</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>359.19719878084</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
         <v>359.19719878084</v>
@@ -7374,10 +7374,10 @@
         <v>1343.572929820347</v>
       </c>
       <c r="X40" t="n">
-        <v>1105.229067680031</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.4933690687955</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N42" t="n">
-        <v>1627.989961721529</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7608,13 +7608,13 @@
         <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>275.6758118380055</v>
+        <v>397.289449980341</v>
       </c>
       <c r="X43" t="n">
-        <v>93.2436976906228</v>
+        <v>397.289449980341</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.2436976906228</v>
+        <v>397.289449980341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H44" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I44" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N44" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P44" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q44" t="n">
         <v>4621.628238841575</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>704.368908940975</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1182.57754799176</v>
+        <v>3492.78721387112</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>3321.693841432837</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I46" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>4143.566481016716</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.369875986873</v>
+        <v>3905.2226188764</v>
       </c>
       <c r="Y46" t="n">
-        <v>1370.277254385804</v>
+        <v>3680.486920265164</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>298.7361805822441</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>270.2143986912198</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9933802602892</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>265.7014250835527</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>96.67425672622839</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>262.4384495236158</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8455,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>68.26591628750424</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>421.0562344946767</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,19 +8695,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P11" t="n">
-        <v>594.6194560602019</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8771,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>67.39425105392507</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>553.1935596277625</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8950,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>554.1634861730674</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9488,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9725,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10120,7 +10120,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N29" t="n">
         <v>853.701196452193</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>693.7865172923508</v>
       </c>
       <c r="M30" t="n">
-        <v>846.2776300172818</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>448.5973834639358</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>429.3564034215989</v>
+        <v>665.1482007347663</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,19 +10904,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>389.0116646475603</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>574.6635313430244</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,16 +11378,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>674.8624769205913</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11396,7 +11396,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.375113957950589</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.998408555528044</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19.106155053831</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.8078017210081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22758,13 +22758,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.84907557688501</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>338.6182546163629</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.89313055788466</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23074,10 +23074,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>71.20841872754914</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>4.362559071250473</v>
       </c>
     </row>
     <row r="9">
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>17.77593127592968</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.2983828659826</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23718,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>49.19646844041387</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23901,13 +23901,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>113.8459296080464</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>193.4209809967733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>21.30520108346087</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4.874559219806002</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>62.25435279695665</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.1745055375995</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>356.9958808389731</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.32377242153899</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.83362056170967</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24906,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>209.7999067317755</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.8745592198064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>71.73155624800641</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>85.9408083144103</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.7564490426709227</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>156.3233446696115</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>120.3975017609121</v>
       </c>
       <c r="X43" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>130.1826302233611</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -26085,13 +26085,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.06664624006493</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523356.2008143828</v>
+        <v>523356.2008143827</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523356.2008143828</v>
+        <v>523356.2008143826</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523356.2008143828</v>
+        <v>523356.2008143826</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.648151672</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796778.648151672</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796778.648151672</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796778.6481516723</v>
+        <v>796778.6481516721</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
   </sheetData>
@@ -26322,25 +26322,25 @@
         <v>152207.2113488842</v>
       </c>
       <c r="E2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="G2" t="n">
+        <v>231718.9340280751</v>
+      </c>
+      <c r="H2" t="n">
         <v>231718.934028075</v>
-      </c>
-      <c r="H2" t="n">
-        <v>231718.9340280751</v>
       </c>
       <c r="I2" t="n">
         <v>231718.934028075</v>
       </c>
       <c r="J2" t="n">
+        <v>231718.9340280751</v>
+      </c>
+      <c r="K2" t="n">
         <v>231718.934028075</v>
-      </c>
-      <c r="K2" t="n">
-        <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
         <v>231718.9340280751</v>
@@ -26349,13 +26349,13 @@
         <v>231718.9340280751</v>
       </c>
       <c r="N2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.934028075</v>
       </c>
       <c r="O2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="P2" t="n">
-        <v>231718.9340280751</v>
+        <v>231718.9340280752</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176368.9423343109</v>
+        <v>176368.942334311</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98208.13106706989</v>
+        <v>-98208.13106706983</v>
       </c>
       <c r="C6" t="n">
-        <v>76747.37882604418</v>
+        <v>76747.37882604425</v>
       </c>
       <c r="D6" t="n">
-        <v>76747.37882604424</v>
+        <v>76747.37882604419</v>
       </c>
       <c r="E6" t="n">
         <v>110374.9788260442</v>
       </c>
       <c r="F6" t="n">
-        <v>110374.9788260442</v>
+        <v>110374.9788260441</v>
       </c>
       <c r="G6" t="n">
-        <v>-30980.59228817318</v>
+        <v>-30980.59228817312</v>
       </c>
       <c r="H6" t="n">
+        <v>145388.3500461377</v>
+      </c>
+      <c r="I6" t="n">
         <v>145388.3500461378</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>8793.549240242821</v>
+      </c>
+      <c r="K6" t="n">
         <v>145388.3500461377</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8793.549240242719</v>
-      </c>
-      <c r="K6" t="n">
-        <v>145388.3500461378</v>
       </c>
       <c r="L6" t="n">
         <v>145388.3500461378</v>
@@ -26560,10 +26560,10 @@
         <v>145388.3500461378</v>
       </c>
       <c r="O6" t="n">
-        <v>-9466.393342570955</v>
+        <v>-9466.393342571042</v>
       </c>
       <c r="P6" t="n">
-        <v>145388.3500461378</v>
+        <v>145388.3500461379</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7337452574854</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537934</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>10.70163254908682</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P11" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36208,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M29" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N29" t="n">
         <v>760.7889056955737</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>637.6719934815018</v>
       </c>
       <c r="M30" t="n">
-        <v>788.7133462788644</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>371.6049244215989</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>516.9120523430244</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>617.2981931821739</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616384.9536498967</v>
+        <v>612292.0826336059</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6750972.622617711</v>
+        <v>6750972.622617713</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5193450.223461221</v>
+        <v>5193450.223461222</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>396.6425927105681</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.39502321397722</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.7165542762729</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.2698922909595</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>282.6071298611869</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.06736062834934</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>324.8000778590579</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5647472501403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1350,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>2.60427796549812</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>19.89843046228963</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.2474135039324</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.193252990925998</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850578</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="17">
@@ -1852,16 +1852,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.73195755566563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.5175082466431</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.2734976419322</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>53.20093248929918</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>372.3536886992978</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.68843489334748</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.68843489334793</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>211.6544656203724</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.6370788493017</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>84.73179601342665</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>262.2425928248792</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>155.8814660853022</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>98.41262563052148</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>27.71706800695802</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815612</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128882</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219428</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>863.4445812219428</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>442.4141691756304</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960203</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959272</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962252</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184963</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184963</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784821</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1299.499495805762</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1299.499495805762</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1299.499495805762</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1299.499495805762</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>1299.499495805762</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.76508562960203</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960203</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858343</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>216.5644706858343</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>216.5644706858343</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521595</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1603.135651610683</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1219.375350745852</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="X5" t="n">
-        <v>818.7319529148044</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y5" t="n">
-        <v>417.7952798628945</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
         <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811263</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811263</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>588.5395825927103</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>309.4699181015847</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>71.12605596126804</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1691.724233752687</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.599643065957</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1357131590178</v>
+        <v>1192.914471946194</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7954976759145</v>
+        <v>778.5742564630909</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y8" t="n">
-        <v>1691.724233752687</v>
+        <v>1603.135651610684</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>859.7947438496549</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>859.7947438496549</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960203</v>
+        <v>621.4508817093383</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960203</v>
+        <v>396.715183098103</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.4530309326549</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C11" t="n">
-        <v>466.328440245925</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>61.8645103389855</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962252</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N11" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5074,19 +5074,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649054</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597144</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N12" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P12" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5229,22 +5229,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815612</v>
+        <v>1686.112302376752</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>1275.987711690022</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E14" t="n">
         <v>871.5237817830823</v>
@@ -5269,34 +5269,34 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N14" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O14" t="n">
         <v>1592.293889628578</v>
       </c>
-      <c r="O14" t="n">
-        <v>2088.254281480102</v>
-      </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>2087.048975428662</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1686.112302376752</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960203</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L15" t="n">
-        <v>558.6080202959272</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.450954962252</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X16" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5603,19 +5603,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>459.7367813560553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>459.7367813560553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>459.7367813560553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>459.7367813560553</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>295.1056554666466</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>922.8163421076072</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>922.8163421076072</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>684.4724799672906</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>459.7367813560553</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1348.756849250995</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>1348.756849250995</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1499.134010834774</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1259.585271811476</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>976.7871243576001</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>702.9013792971219</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>423.8317148059963</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>423.8317148059963</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6211,16 +6211,16 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F26" t="n">
-        <v>812.8804791700727</v>
+        <v>866.6187948158295</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>917.3518287999427</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
         <v>1760.328909494509</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6654,19 +6654,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.093855288175</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1383.093855288175</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6794,10 +6794,10 @@
         <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4649.368283628768</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4649.368283628768</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4409.819544605471</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4409.819544605471</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4409.819544605471</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4409.819544605471</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4409.819544605471</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6973,16 +6973,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3833.844444016082</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3450.08414315125</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3049.440745320202</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2648.504072268292</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>947.1447271725442</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>947.1447271725442</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>947.1447271725442</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.1375248150675</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>760.044152376784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>600.549507699694</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>439.6386925680135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>439.6386925680135</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1118.837231209112</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2237.518802661711</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1827.394211974981</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.930282068041</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1008.590066584938</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>587.5596545386256</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>178.8313704314578</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
-        <v>178.8313704314578</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2647.7399823262</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1343.572929820347</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>741.8628115185547</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N42" t="n">
-        <v>741.8628115185547</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O42" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>397.289449980341</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>397.289449980341</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>397.289449980341</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1521950629049</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
         <v>4621.628238841575</v>
@@ -7730,22 +7730,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.182536368609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N45" t="n">
-        <v>1228.182536368609</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3492.78721387112</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3321.693841432837</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3293.69680304197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>4143.566481016716</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>3905.2226188764</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>3680.486920265164</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>270.2143986912198</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>527.2265162238735</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>265.7014250835527</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>96.67425672622839</v>
+        <v>235.5014795744219</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>421.0562344946767</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>229.2480899138817</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -8783,13 +8783,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8932,22 +8932,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>235.5014795744219</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>554.1634861730674</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848182</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9485,19 +9485,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>174.1409094511112</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9725,7 +9725,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
@@ -9734,10 +9734,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>174.4915021836165</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9880,7 +9880,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M26" t="n">
         <v>877.4504173780091</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N29" t="n">
         <v>853.701196452193</v>
@@ -10193,13 +10193,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>693.7865172923508</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10208,7 +10208,7 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>448.5973834639358</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10673,22 +10673,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>665.1482007347663</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>675.0496721821739</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>519.1254239367926</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>7.998408555528044</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>93.53324123986292</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.106155053831</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.84907557688501</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22843,13 +22843,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>97.31556799499623</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.4209809967736</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>92.02003006679143</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23080,7 +23080,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.362559071250473</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23193,7 +23193,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>268.5426096443751</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.2983828659826</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23314,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>234.5914563607948</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77593127593013</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>132.7350114629141</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006515</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="17">
@@ -23740,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23901,13 +23901,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>113.8459296080464</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.30520108346087</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24414,7 +24414,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>62.25435279695665</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>356.9958808389731</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7999067317755</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.73155624800641</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>85.9408083144103</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7564490426709227</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>134.6847134965116</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>120.3975017609121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>124.0757159946015</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>130.1826302233611</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523356.2008143827</v>
+        <v>523356.2008143828</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523356.2008143826</v>
+        <v>523356.2008143827</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796778.648151672</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796778.6481516721</v>
+        <v>796778.6481516722</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796778.6481516722</v>
+        <v>796778.6481516723</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>152207.2113488842</v>
       </c>
       <c r="E2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="F2" t="n">
-        <v>152207.2113488841</v>
+        <v>152207.2113488842</v>
       </c>
       <c r="G2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="H2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280752</v>
       </c>
       <c r="I2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="J2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="K2" t="n">
-        <v>231718.934028075</v>
+        <v>231718.9340280751</v>
       </c>
       <c r="L2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="M2" t="n">
+        <v>231718.934028075</v>
+      </c>
+      <c r="N2" t="n">
         <v>231718.9340280751</v>
-      </c>
-      <c r="N2" t="n">
-        <v>231718.934028075</v>
       </c>
       <c r="O2" t="n">
         <v>231718.9340280751</v>
       </c>
       <c r="P2" t="n">
-        <v>231718.9340280752</v>
+        <v>231718.9340280751</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176368.942334311</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98208.13106706983</v>
+        <v>-98885.65992646388</v>
       </c>
       <c r="C6" t="n">
-        <v>76747.37882604425</v>
+        <v>76069.84996665016</v>
       </c>
       <c r="D6" t="n">
-        <v>76747.37882604419</v>
+        <v>76069.84996665013</v>
       </c>
       <c r="E6" t="n">
-        <v>110374.9788260442</v>
+        <v>109697.4499666502</v>
       </c>
       <c r="F6" t="n">
-        <v>110374.9788260441</v>
+        <v>109697.4499666502</v>
       </c>
       <c r="G6" t="n">
-        <v>-30980.59228817312</v>
+        <v>-31161.17288082226</v>
       </c>
       <c r="H6" t="n">
-        <v>145388.3500461377</v>
+        <v>145207.7694534888</v>
       </c>
       <c r="I6" t="n">
-        <v>145388.3500461378</v>
+        <v>145207.7694534887</v>
       </c>
       <c r="J6" t="n">
-        <v>8793.549240242821</v>
+        <v>8612.968647593691</v>
       </c>
       <c r="K6" t="n">
-        <v>145388.3500461377</v>
+        <v>145207.7694534887</v>
       </c>
       <c r="L6" t="n">
-        <v>145388.3500461378</v>
+        <v>145207.7694534887</v>
       </c>
       <c r="M6" t="n">
-        <v>145388.3500461378</v>
+        <v>145207.7694534886</v>
       </c>
       <c r="N6" t="n">
-        <v>145388.3500461378</v>
+        <v>145207.7694534887</v>
       </c>
       <c r="O6" t="n">
-        <v>-9466.393342571042</v>
+        <v>-9646.973935220121</v>
       </c>
       <c r="P6" t="n">
-        <v>145388.3500461379</v>
+        <v>145207.7694534887</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>40.55973291537934</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35652,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>120.9475160573612</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
@@ -36454,10 +36454,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>120.2318671808127</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L26" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M26" t="n">
         <v>784.1601929209636</v>
@@ -36618,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M29" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N29" t="n">
         <v>760.7889056955737</v>
@@ -36913,13 +36913,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>637.6719934815018</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>390.8459044639358</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>607.3967217347663</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3739449367926</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
